--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="X3" t="n">
         <v>5</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AL3" t="n">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AS3" t="n">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AZ3" t="n">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="BG3" t="n">
         <v>3</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="BN3" t="n">
         <v>2</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="BU3" t="n">
         <v>1</v>
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="CA3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="CB3" t="n">
         <v>4</v>
@@ -2081,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="CH3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="CI3" t="n">
         <v>6</v>
@@ -2102,31 +2102,31 @@
         <v>3</v>
       </c>
       <c r="CO3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="CP3" t="n">
         <v>5</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.8241758241758241</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="CR3" t="n">
         <v>0.8620689655172413</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.8426966292134831</v>
+        <v>0.8241758241758242</v>
       </c>
       <c r="CT3" t="n">
         <v>3</v>
       </c>
       <c r="CU3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CV3" t="n">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="CW3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CX3" t="n">
         <v>0.9230769230769232</v>
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="DC3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="DD3" t="n">
         <v>4</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="DQ3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="DR3" t="n">
         <v>3</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="DX3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="DY3" t="n">
         <v>3</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="ET3" t="n">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="FH3" t="n">
         <v>2</v>
@@ -2333,19 +2333,19 @@
         <v>4</v>
       </c>
       <c r="FN3" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="FO3" t="n">
         <v>4</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6742751388032079</v>
+        <v>0.6736582356570019</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6544964989436943</v>
+        <v>0.6539333027963252</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6742751388032079</v>
+        <v>0.6736582356570019</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -2339,13 +2339,13 @@
         <v>4</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6736582356570019</v>
+        <v>0.6730413325107958</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6539333027963252</v>
+        <v>0.6533523390899237</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6736582356570019</v>
+        <v>0.6730413325107958</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7285714285714285</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.588235294117647</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4044943820224719</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9104477611940298</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6853932584269663</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7820512820512822</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -1395,119 +1395,119 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AG2" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.6710526315789472</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.8296296296296297</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.756578947368421</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.7348242811501597</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.5212765957446809</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.7538461538461538</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.6163522012578616</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.8387096774193549</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.8253968253968254</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.8559322033898306</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.6273291925465838</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.7240143369175626</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.5057471264367815</v>
-      </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.5402843601895734</v>
+        <v>0.6185567010309277</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.8</v>
       </c>
       <c r="CD2" t="n">
         <v>0.6285714285714286</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.619718309859155</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.8160919540229885</v>
+        <v>0.9324324324324323</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.7395833333333333</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
@@ -1584,35 +1584,35 @@
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.7865168539325843</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="CS2" t="n">
+        <v>0.6787330316742081</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>0.7954545454545455</v>
       </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.8292682926829269</v>
-      </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.7901234567901234</v>
+        <v>0.7853881278538813</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.6323529411764706</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.671875</v>
+        <v>0.6762589928057553</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.6049382716049383</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.6950354609929078</v>
+        <v>0.6821705426356588</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.4</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.4941176470588236</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.75</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="EJ2" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.9654534238124616</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.7722583493898524</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.532258064516129</v>
+        <v>0.9654534238124616</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.7543859649122807</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.6370370370370372</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="FC2" t="n">
         <v>0.8235294117647058</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2876712328767123</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.407766990291262</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6557680444170265</v>
+        <v>0.6644046884639112</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6337610158432633</v>
+        <v>0.6369161685215786</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.6557680444170265</v>
+        <v>0.6644046884639112</v>
       </c>
     </row>
     <row r="3">
@@ -1835,16 +1835,16 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E3" t="n">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1877,19 +1877,19 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9523809523809524</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4785714285714286</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4395604395604395</v>
+        <v>0.5929203539823009</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>365</v>
@@ -1898,142 +1898,142 @@
         <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6966292134831461</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.794871794871795</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4848484848484848</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="n">
+        <v>367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6017699115044248</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
         <v>369</v>
       </c>
-      <c r="AL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.7538461538461538</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AS3" t="n">
         <v>5</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>365</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
       <c r="AT3" t="n">
-        <v>0.9387755102040816</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.6917293233082707</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
         <v>367</v>
       </c>
       <c r="AZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.9032258064516128</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>369</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.7748344370860927</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.7267080745341615</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BK3" t="n">
         <v>3</v>
       </c>
-      <c r="BA3" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
+      <c r="BL3" t="n">
         <v>2</v>
       </c>
-      <c r="BF3" t="n">
-        <v>367</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.8632478632478633</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.6273291925465838</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.7266187050359711</v>
-      </c>
-      <c r="BK3" t="n">
+      <c r="BM3" t="n">
+        <v>361</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BR3" t="n">
         <v>1</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>369</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.4693877551020408</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.5227272727272727</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>1</v>
@@ -2042,208 +2042,208 @@
         <v>369</v>
       </c>
       <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.6629834254143646</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.7244094488188977</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
         <v>1</v>
       </c>
-      <c r="BV3" t="n">
-        <v>0.4645669291338583</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.7763157894736842</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.58128078817734</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BZ3" t="n">
+      <c r="CO3" t="n">
+        <v>365</v>
+      </c>
+      <c r="CP3" t="n">
         <v>3</v>
       </c>
-      <c r="CA3" t="n">
-        <v>369</v>
-      </c>
-      <c r="CB3" t="n">
+      <c r="CQ3" t="n">
+        <v>0.6446280991735537</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>26</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>363</v>
+      </c>
+      <c r="CW3" t="n">
         <v>4</v>
       </c>
-      <c r="CC3" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>369</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.8409090909090909</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0.7047619047619048</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.766839378238342</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>369</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>5</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.8241758241758242</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>365</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>9</v>
-      </c>
       <c r="CX3" t="n">
-        <v>0.9230769230769232</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="CY3" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.8674698795180724</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="DA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB3" t="n">
         <v>1</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>2</v>
       </c>
       <c r="DC3" t="n">
         <v>369</v>
       </c>
       <c r="DD3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.7559055118110236</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.7699115044247787</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.8</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="DH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>365</v>
+      </c>
+      <c r="DK3" t="n">
         <v>3</v>
       </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>367</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>2</v>
-      </c>
       <c r="DL3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.6984126984126984</v>
+        <v>0.7194244604316549</v>
       </c>
       <c r="DO3" t="n">
         <v>3</v>
       </c>
       <c r="DP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>365</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.5802469135802469</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.717557251908397</v>
+      </c>
+      <c r="DV3" t="n">
         <v>1</v>
       </c>
-      <c r="DQ3" t="n">
-        <v>369</v>
-      </c>
-      <c r="DR3" t="n">
+      <c r="DW3" t="n">
         <v>3</v>
       </c>
-      <c r="DS3" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0.6172839506172839</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0.7194244604316548</v>
-      </c>
-      <c r="DV3" t="n">
+      <c r="DX3" t="n">
+        <v>365</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.4347826086956521</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.5555555555555555</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>367</v>
+      </c>
+      <c r="EF3" t="n">
         <v>3</v>
       </c>
-      <c r="DW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>369</v>
-      </c>
-      <c r="DY3" t="n">
+      <c r="EG3" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.4347826086956521</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>3</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.4941176470588236</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>369</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
@@ -2252,100 +2252,100 @@
         <v>369</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5920000000000001</v>
       </c>
       <c r="EQ3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES3" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="ET3" t="n">
         <v>3</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.7543859649122807</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.6370370370370372</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ3" t="n">
         <v>369</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.875</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8055555555555555</v>
       </c>
       <c r="FE3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG3" t="n">
         <v>369</v>
       </c>
       <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.293103448275862</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.3863636363636363</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="FM3" t="n">
         <v>2</v>
       </c>
-      <c r="FI3" t="n">
-        <v>0.2987012987012987</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0.4299065420560748</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>4</v>
-      </c>
       <c r="FN3" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="FO3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6730413325107958</v>
+        <v>0.6816779765576805</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6533523390899237</v>
+        <v>0.6592482618605811</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6730413325107958</v>
+        <v>0.6816779765576805</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.9654534238124616</v>
+        <v>0.5</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.7722583493898524</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.9654534238124616</v>
+        <v>0.5625000000000001</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.746268656716418</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E2" t="n">
         <v>0.847457627118644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7936507936507936</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6511627906976744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5803571428571429</v>
+        <v>0.5527638190954774</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8493150684931506</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6966292134831461</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.7325581395348838</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.3902439024390243</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.4504504504504504</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6710526315789472</v>
+        <v>0.6878980891719746</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8296296296296297</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.756578947368421</v>
+        <v>0.823076923076923</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6645962732919255</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.7348242811501597</v>
+        <v>0.7353951890034365</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="BP2" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.4873949579831932</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6185567010309277</v>
+        <v>0.594871794871795</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1542,140 +1542,140 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.6233766233766234</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.7093596059113301</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.6826923076923077</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.7434554973821988</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.8192771084337349</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.8252427184466019</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.7522123893805309</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.787037037037037</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="DM2" t="n">
         <v>0.8</v>
       </c>
-      <c r="CD2" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.9324324324324323</v>
-      </c>
-      <c r="CK2" t="n">
+      <c r="DN2" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.7796610169491526</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.5679012345679012</v>
+      </c>
+      <c r="DU2" t="n">
         <v>0.6571428571428571</v>
       </c>
-      <c r="CL2" t="n">
-        <v>0.770949720670391</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.5597014925373134</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.6787330316742081</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.7954545454545455</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.7610619469026548</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.7853881278538813</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.5949367088607594</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.7833333333333333</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.6762589928057553</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.5432098765432098</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.6821705426356588</v>
-      </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
@@ -1689,35 +1689,35 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.4736842105263157</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="EI2" t="n">
         <v>0.4</v>
       </c>
-      <c r="EA2" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.4166666666666666</v>
-      </c>
       <c r="EJ2" t="n">
         <v>0</v>
       </c>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.5625000000000001</v>
+        <v>0.5468749999999999</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.6111111111111113</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.7</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6644046884639112</v>
+        <v>0.6520666255397902</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6369161685215786</v>
+        <v>0.6302859252678646</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.6644046884639112</v>
+        <v>0.6520666255397902</v>
       </c>
     </row>
     <row r="3">
@@ -1835,37 +1835,37 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E3" t="n">
         <v>0.847457627118644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6315789473684211</v>
+        <v>0.7</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1877,226 +1877,226 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
+        <v>0.9365079365079364</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4214285714285714</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5812807881773399</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>367</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.7790697674418605</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.4785714285714286</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5929203539823009</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>365</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.8831168831168831</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.7640449438202247</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8192771084337349</v>
+        <v>0.7657142857142858</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.6986301369863014</v>
+        <v>0.7006369426751592</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="n">
         <v>367</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.9032258064516128</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="BD3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="BG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.7748344370860927</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.7267080745341615</v>
+        <v>0.6832298136645962</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.75</v>
+        <v>0.7508532423208192</v>
       </c>
       <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
         <v>3</v>
       </c>
-      <c r="BL3" t="n">
-        <v>2</v>
-      </c>
       <c r="BM3" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="BN3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.53125</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="BR3" t="n">
         <v>1</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
         <v>369</v>
       </c>
       <c r="BU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BW3" t="n">
         <v>0.7894736842105263</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.6629834254143646</v>
+        <v>0.6282722513089006</v>
       </c>
       <c r="BY3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="CB3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.7244094488188977</v>
+        <v>0.6447368421052633</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH3" t="n">
         <v>367</v>
       </c>
       <c r="CI3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7192118226600985</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN3" t="n">
         <v>1</v>
@@ -2105,187 +2105,187 @@
         <v>365</v>
       </c>
       <c r="CP3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.7395833333333334</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.8160919540229885</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.7759562841530055</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CW3" t="n">
         <v>3</v>
       </c>
-      <c r="CQ3" t="n">
-        <v>0.6446280991735537</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>26</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>13</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>363</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>4</v>
-      </c>
       <c r="CX3" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.8275862068965518</v>
+        <v>0.8292682926829269</v>
       </c>
       <c r="DA3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>369</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.7699115044247787</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.7981651376146789</v>
+        <v>0.787037037037037</v>
       </c>
       <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>367</v>
+      </c>
+      <c r="DK3" t="n">
         <v>2</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DL3" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>367</v>
+      </c>
+      <c r="DR3" t="n">
         <v>1</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>365</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.6329113924050633</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.7194244604316549</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>365</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>4</v>
-      </c>
       <c r="DS3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.5802469135802469</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.717557251908397</v>
+        <v>0.6993006993006994</v>
       </c>
       <c r="DV3" t="n">
         <v>1</v>
       </c>
       <c r="DW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DX3" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="DY3" t="n">
         <v>5</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.4347826086956521</v>
+        <v>0.75</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.4736842105263157</v>
       </c>
       <c r="EC3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="EF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.4347826086956521</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="EJ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
         <v>369</v>
       </c>
       <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.5625000000000001</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EN3" t="n">
-        <v>0.5362318840579711</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0.5920000000000001</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>4</v>
-      </c>
       <c r="ER3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ES3" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="ET3" t="n">
         <v>3</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="EX3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EY3" t="n">
         <v>1</v>
@@ -2297,16 +2297,16 @@
         <v>3</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.9629629629629628</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.8055555555555555</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="FE3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="FF3" t="n">
         <v>1</v>
@@ -2318,34 +2318,34 @@
         <v>3</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.293103448275862</v>
+        <v>0.2771084337349397</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.3863636363636363</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="FL3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="FN3" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="FO3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6816779765576805</v>
+        <v>0.6699568167797656</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6592482618605811</v>
+        <v>0.6506774018610501</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6816779765576805</v>
+        <v>0.6699568167797656</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="X3" t="n">
         <v>4</v>
@@ -1913,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL3" t="n">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AS3" t="n">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AZ3" t="n">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="BG3" t="n">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="BN3" t="n">
         <v>6</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="CB3" t="n">
         <v>4</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="CH3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="CI3" t="n">
         <v>4</v>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="CO3" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="CP3" t="n">
         <v>4</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="CW3" t="n">
         <v>3</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="DD3" t="n">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="DR3" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="DX3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="DY3" t="n">
         <v>5</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="EM3" t="n">
         <v>3</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="ES3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="ET3" t="n">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="EZ3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="FA3" t="n">
         <v>3</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="FG3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="FH3" t="n">
         <v>3</v>
@@ -2333,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="FN3" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="FO3" t="n">
         <v>7</v>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -1892,31 +1892,31 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="X3" t="n">
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7790697674418605</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="Z3" t="n">
         <v>0.7528089887640449</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7657142857142858</v>
+        <v>0.7745664739884393</v>
       </c>
       <c r="AB3" t="n">
         <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>0.3148148148148148</v>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AL3" t="n">
         <v>3</v>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="AS3" t="n">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="AZ3" t="n">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="BG3" t="n">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="BN3" t="n">
         <v>6</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="CB3" t="n">
         <v>4</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="CH3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="CI3" t="n">
         <v>4</v>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="CO3" t="n">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="CP3" t="n">
         <v>4</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="CW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CX3" t="n">
         <v>0.8947368421052632</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="DD3" t="n">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="DR3" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="DX3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="DY3" t="n">
         <v>5</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="EM3" t="n">
         <v>3</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="ES3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="ET3" t="n">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="EZ3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="FA3" t="n">
         <v>3</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="FG3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="FH3" t="n">
         <v>3</v>
@@ -2333,19 +2333,19 @@
         <v>10</v>
       </c>
       <c r="FN3" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="FO3" t="n">
         <v>7</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6699568167797656</v>
+        <v>0.6705737199259716</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6506774018610501</v>
+        <v>0.6512239613019644</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6699568167797656</v>
+        <v>0.6705737199259716</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1835,25 +1835,25 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.684931506849315</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="E3" t="n">
         <v>0.847457627118644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7874015748031497</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.7368421052631579</v>
@@ -1871,241 +1871,241 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9365079365079364</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4214285714285714</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5812807881773399</v>
+        <v>0.5527638190954774</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7976190476190477</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7528089887640449</v>
+        <v>0.8426966292134831</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7745664739884393</v>
+        <v>0.78125</v>
       </c>
       <c r="AB3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.4854368932038836</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="AW3" t="n">
         <v>3</v>
       </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>332</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.3148148148148148</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.4197530864197531</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>334</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5869565217391305</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>333</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.7534246575342466</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.6547619047619048</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.7006369426751592</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1</v>
-      </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="BB3" t="n">
         <v>0.828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.8548387096774193</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="BG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.6832298136645962</v>
+        <v>0.6645962732919255</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7508532423208192</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="BN3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.53125</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="BP3" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.5</v>
       </c>
       <c r="BR3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.5686274509803921</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.7631578947368421</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>33</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.7164179104477612</v>
+      </c>
+      <c r="CM3" t="n">
         <v>2</v>
       </c>
-      <c r="BV3" t="n">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.6282722513089006</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>334</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.5975609756097561</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.6447368421052633</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>333</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.7448979591836735</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0.6952380952380952</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.7192118226600985</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1</v>
-      </c>
       <c r="CN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="CP3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0.7395833333333334</v>
@@ -2117,37 +2117,37 @@
         <v>0.7759562841530055</v>
       </c>
       <c r="CT3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV3" t="n">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="CW3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="CY3" t="n">
         <v>0.7727272727272727</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.8292682926829269</v>
+        <v>0.85</v>
       </c>
       <c r="DA3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="DD3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>0.8252427184466019</v>
@@ -2165,52 +2165,52 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="DK3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="DM3" t="n">
         <v>0.8</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="DR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.6172839506172839</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.6993006993006994</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="DV3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DW3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="DY3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0.75</v>
@@ -2228,124 +2228,124 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.4190476190476191</v>
+        <v>0.4565217391304347</v>
       </c>
       <c r="EJ3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="EK3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.5645161290322581</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.5932203389830509</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>35</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="EX3" t="n">
         <v>3</v>
       </c>
-      <c r="EN3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0.5625000000000001</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>2</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>334</v>
-      </c>
-      <c r="ET3" t="n">
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>35</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0.8474576271186441</v>
+      </c>
+      <c r="FE3" t="n">
         <v>3</v>
       </c>
-      <c r="EU3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0.5964912280701754</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>334</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0.9629629629629628</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0.8524590163934426</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>2</v>
-      </c>
       <c r="FF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="FH3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.2771084337349397</v>
+        <v>0.3272727272727272</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="FM3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="FO3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6705737199259716</v>
+        <v>0.6551511412708205</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6512239613019644</v>
+        <v>0.6320454050479802</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6705737199259716</v>
+        <v>0.6551511412708205</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1835,22 +1835,22 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E3" t="n">
         <v>0.847457627118644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7874015748031497</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1892,217 +1892,217 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7281553398058253</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8426966292134831</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.78125</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AG3" t="n">
         <v>0.5925925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="AN3" t="n">
         <v>0.3846153846153846</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.4854368932038836</v>
+        <v>0.4629629629629629</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0.6428571428571429</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="BB3" t="n">
         <v>0.828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8548387096774193</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="BD3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.84251968503937</v>
+        <v>0.8294573643410853</v>
       </c>
       <c r="BI3" t="n">
         <v>0.6645962732919255</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.7430555555555556</v>
+        <v>0.7379310344827585</v>
       </c>
       <c r="BK3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.53125</v>
       </c>
       <c r="BP3" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.5</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="BR3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="BW3" t="n">
         <v>0.7631578947368421</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.651685393258427</v>
+        <v>0.6137566137566138</v>
       </c>
       <c r="BY3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="CD3" t="n">
         <v>0.6857142857142857</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6357615894039735</v>
       </c>
       <c r="CF3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.75</v>
+        <v>0.7422680412371134</v>
       </c>
       <c r="CK3" t="n">
         <v>0.6857142857142857</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="CM3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -2117,34 +2117,34 @@
         <v>0.7759562841530055</v>
       </c>
       <c r="CT3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CU3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="CW3" t="n">
         <v>1</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="CY3" t="n">
         <v>0.7727272727272727</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.85</v>
+        <v>0.8292682926829269</v>
       </c>
       <c r="DA3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
@@ -2165,49 +2165,49 @@
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="DM3" t="n">
         <v>0.8</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="DO3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.8363636363636363</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="DT3" t="n">
         <v>0.5679012345679012</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.676470588235294</v>
+        <v>0.6618705035971224</v>
       </c>
       <c r="DV3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DW3" t="n">
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -2228,124 +2228,124 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.3</v>
       </c>
       <c r="EH3" t="n">
         <v>0.6363636363636364</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.4565217391304347</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="EJ3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.5645161290322581</v>
+        <v>0.5</v>
       </c>
       <c r="EO3" t="n">
         <v>0.625</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.5932203389830509</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="EQ3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.6875</v>
+        <v>0.66</v>
       </c>
       <c r="EV3" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.616822429906542</v>
       </c>
       <c r="EX3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EY3" t="n">
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="FC3" t="n">
         <v>0.7352941176470589</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.8474576271186441</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="FE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FF3" t="n">
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.3272727272727272</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="FJ3" t="n">
         <v>0.6</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.4235294117647059</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="FL3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6551511412708205</v>
+        <v>0.6526835286859963</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6320454050479802</v>
+        <v>0.6306393307604649</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6551511412708205</v>
+        <v>0.6526835286859963</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.847457627118644</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1332,14 +1332,14 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="L2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.6511627906976744</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9322033898305084</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.4071428571428571</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5527638190954774</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7590361445783133</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7078651685393258</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7325581395348838</v>
+        <v>0.7630057803468209</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.3902439024390243</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4504504504504504</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7397260273972602</v>
+        <v>0.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6878980891719746</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.828125</v>
+        <v>0.90625</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8412698412698412</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.823076923076923</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.6645962732919255</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.7353951890034365</v>
+        <v>0.7854785478547855</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4873949579831932</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.594871794871795</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1542,182 +1542,182 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
+        <v>0.5567010309278351</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.6467065868263473</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.8765432098765432</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.7634408602150536</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.7070707070707071</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.6724137931034483</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.7213114754098361</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.7787610619469026</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.748936170212766</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.6419753086419753</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.7074829931972788</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.6133333333333333</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="EI2" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="CD2" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.6233766233766234</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.7346938775510204</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.7093596059113301</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.6826923076923077</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.8160919540229885</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.7434554973821988</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.8192771084337349</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.8252427184466019</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.7522123893805309</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.787037037037037</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.7796610169491526</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.5679012345679012</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.4736842105263157</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="EJ2" t="n">
         <v>0</v>
       </c>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="EO2" t="n">
         <v>0.625</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.5468749999999999</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.6111111111111113</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.806451612903226</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.3495145631067961</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6520666255397902</v>
+        <v>0.6822948797038865</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6302859252678646</v>
+        <v>0.6595375995659341</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.6520666255397902</v>
+        <v>0.6822948797038865</v>
       </c>
     </row>
     <row r="3">
@@ -1835,517 +1835,517 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.684931506849315</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="E3" t="n">
-        <v>0.847457627118644</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.8245614035087718</v>
       </c>
       <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>365</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>366</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.9322033898305084</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.4214285714285714</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5527638190954774</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7303370786516854</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7514450867052023</v>
+        <v>0.8323699421965318</v>
       </c>
       <c r="AB3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="AG3" t="n">
         <v>0.5925925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>367</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6614173228346457</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>359</v>
+      </c>
+      <c r="AS3" t="n">
         <v>3</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.4629629629629629</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AT3" t="n">
+        <v>0.8305084745762712</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.6853146853146853</v>
+      </c>
+      <c r="AW3" t="n">
         <v>3</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
+      <c r="AX3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>363</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>363</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8633093525179856</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.7453416149068323</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>361</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.6206896551724138</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>369</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>369</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.6506024096385543</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>361</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.9102564102564102</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.7759562841530054</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>363</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.8850574712643678</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.8415300546448087</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>357</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>368</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.7606837606837606</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.7876106194690266</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.7739130434782607</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>362</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.7627118644067796</v>
+      </c>
+      <c r="DM3" t="n">
         <v>0.75</v>
       </c>
-      <c r="AU3" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.6923076923076924</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="DN3" t="n">
+        <v>0.7563025210084034</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>365</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.7397260273972603</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>364</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>366</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.619718309859155</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>1</v>
       </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.8548387096774194</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.8412698412698412</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>28</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.8294573643410853</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.6645962732919255</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.7379310344827585</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>28</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.4788732394366197</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.5132743362831859</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.6137566137566138</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.6357615894039735</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>28</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.7422680412371134</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.7128712871287128</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>27</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0.7395833333333334</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.8160919540229885</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.7759562841530055</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>8</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>28</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.8292682926829269</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>29</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.8252427184466019</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0.7522123893805309</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0.787037037037037</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>28</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>28</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0.5679012345679012</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0.6618705035971224</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>28</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.4736842105263157</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>29</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.4077669902912621</v>
-      </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>2</v>
       </c>
-      <c r="EK3" t="n">
-        <v>0</v>
-      </c>
       <c r="EL3" t="n">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="EO3" t="n">
         <v>0.625</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="EQ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>367</v>
+      </c>
+      <c r="ET3" t="n">
         <v>2</v>
       </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>29</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
       <c r="EU3" t="n">
-        <v>0.66</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.616822429906542</v>
+        <v>0.6336633663366337</v>
       </c>
       <c r="EX3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EZ3" t="n">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="FE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG3" t="n">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.3495145631067961</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FN3" t="n">
-        <v>28</v>
+        <v>369</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6526835286859963</v>
+        <v>0.7008019740900678</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6306393307604649</v>
+        <v>0.6813430670612938</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6526835286859963</v>
+        <v>0.7008019740900678</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7899159663865546</v>
+        <v>0.7656250000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.625</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L2" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4071428571428571</v>
+        <v>0.2785714285714286</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4216216216216216</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7415730337078652</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7630057803468209</v>
+        <v>0.7607361963190185</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5616438356164384</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5942028985507246</v>
+        <v>0.6187050359712229</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1437,55 +1437,55 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.6585365853658537</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
         <v>0.8</v>
       </c>
-      <c r="AU2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.6987951807228916</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.7891156462585034</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.8380281690140845</v>
-      </c>
       <c r="BI2" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.7854785478547855</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.5142857142857143</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5890410958904109</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.5567010309278351</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.6467065868263473</v>
+        <v>0.6127167630057803</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.8765432098765432</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.7634408602150536</v>
+        <v>0.7292817679558011</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.8625</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.8263473053892216</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.7787610619469026</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.748936170212766</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.671875</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.6419753086419753</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.7074829931972788</v>
+        <v>0.6330935251798561</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.6133333333333333</v>
+        <v>0.4761904761904761</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.2179487179487179</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="EJ2" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.625</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.5691056910569106</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="FC2" t="n">
         <v>0.7647058823529411</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.7647058823529412</v>
+        <v>0.6419753086419752</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.25</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.3614457831325301</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.6822948797038865</v>
+        <v>0.6415792720542874</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6595375995659341</v>
+        <v>0.6216597443344828</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.6822948797038865</v>
+        <v>0.6415792720542874</v>
       </c>
     </row>
     <row r="3">
@@ -1835,205 +1835,205 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8245614035087718</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>369</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>365</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>369</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3071428571428571</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.455026455026455</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>366</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.8428571428571429</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.4214285714285714</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5619047619047619</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="X3" t="n">
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8323699421965318</v>
+        <v>0.7975460122699387</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
+        <v>369</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6277372262773723</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>367</v>
       </c>
-      <c r="AL3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.6774193548387096</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.6614173228346457</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AS3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.6547619047619048</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.6707317073170732</v>
+      </c>
+      <c r="AW3" t="n">
         <v>1</v>
       </c>
-      <c r="AR3" t="n">
-        <v>359</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.8305084745762712</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.6853146853146853</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
       <c r="AX3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AZ3" t="n">
         <v>3</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.8682170542635659</v>
       </c>
       <c r="BD3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>369</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.7080745341614907</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.7549668874172185</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
         <v>2</v>
       </c>
-      <c r="BF3" t="n">
-        <v>363</v>
-      </c>
-      <c r="BG3" t="n">
+      <c r="BM3" t="n">
+        <v>369</v>
+      </c>
+      <c r="BN3" t="n">
         <v>4</v>
       </c>
-      <c r="BH3" t="n">
-        <v>0.8633093525179856</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.7453416149068323</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>361</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
       <c r="BO3" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>1</v>
@@ -2042,19 +2042,19 @@
         <v>369</v>
       </c>
       <c r="BU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5986394557823128</v>
       </c>
       <c r="BY3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
         <v>1</v>
@@ -2063,274 +2063,274 @@
         <v>369</v>
       </c>
       <c r="CB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.7571428571428571</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.6198830409356725</v>
+      </c>
+      <c r="CF3" t="n">
         <v>2</v>
       </c>
-      <c r="CC3" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.6506024096385543</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>1</v>
-      </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="CI3" t="n">
         <v>2</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.88</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.7759562841530054</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="CM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>367</v>
+      </c>
+      <c r="CP3" t="n">
         <v>3</v>
       </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>363</v>
-      </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
+        <v>0.8734177215189873</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.8313253012048193</v>
+      </c>
+      <c r="CT3" t="n">
         <v>2</v>
       </c>
-      <c r="CQ3" t="n">
-        <v>0.8020833333333334</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.8850574712643678</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0.8415300546448087</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>16</v>
-      </c>
       <c r="CU3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="CV3" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="CW3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.78</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.7708333333333333</v>
       </c>
       <c r="DA3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="DB3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DD3" t="n">
         <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.8118811881188119</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.7876106194690266</v>
+        <v>0.7256637168141593</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.7739130434782607</v>
+        <v>0.766355140186916</v>
       </c>
       <c r="DH3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ3" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="DK3" t="n">
         <v>3</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.7627118644067796</v>
+        <v>0.671875</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.75</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.7563025210084034</v>
+        <v>0.6935483870967741</v>
       </c>
       <c r="DO3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>369</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.5802469135802469</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW3" t="n">
         <v>3</v>
       </c>
-      <c r="DQ3" t="n">
-        <v>365</v>
-      </c>
-      <c r="DR3" t="n">
+      <c r="DX3" t="n">
+        <v>369</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>369</v>
+      </c>
+      <c r="EF3" t="n">
         <v>3</v>
       </c>
-      <c r="DS3" t="n">
-        <v>0.8307692307692308</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0.7397260273972603</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>364</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>4</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>366</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>2</v>
-      </c>
       <c r="EG3" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2207792207792207</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.619718309859155</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="EJ3" t="n">
         <v>1</v>
       </c>
       <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>369</v>
+      </c>
+      <c r="EM3" t="n">
         <v>2</v>
       </c>
-      <c r="EL3" t="n">
-        <v>366</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>5</v>
-      </c>
       <c r="EN3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.625</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.603448275862069</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="EQ3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="ET3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="EV3" t="n">
         <v>0.5614035087719298</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.6336633663366337</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="EX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="FA3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.6419753086419752</v>
       </c>
       <c r="FE3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
         <v>369</v>
       </c>
       <c r="FH3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.430379746835443</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="FL3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="FM3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FN3" t="n">
         <v>369</v>
@@ -2339,13 +2339,13 @@
         <v>3</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.7008019740900678</v>
+        <v>0.6526835286859963</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6813430670612938</v>
+        <v>0.6322340513030421</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.7008019740900678</v>
+        <v>0.6526835286859963</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>0.7894736842105263</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>0.8783783783783784</v>
@@ -1913,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>0.3714285714285714</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6875</v>
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA3" t="n">
         <v>0.8615384615384616</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="BF3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="BG3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH3" t="n">
         <v>0.8085106382978723</v>
@@ -2018,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="BM3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="BN3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BO3" t="n">
         <v>0.5483870967741935</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="BU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV3" t="n">
         <v>0.6197183098591549</v>
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="CA3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="CB3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC3" t="n">
         <v>0.5247524752475248</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="CI3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CJ3" t="n">
         <v>0.88</v>
@@ -2102,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CQ3" t="n">
         <v>0.8734177215189873</v>
@@ -2123,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="CV3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="CW3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CX3" t="n">
         <v>0.7115384615384616</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="DD3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DE3" t="n">
         <v>0.8118811881188119</v>
@@ -2165,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="DJ3" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="DK3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DL3" t="n">
         <v>0.671875</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="DR3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DS3" t="n">
         <v>0.7833333333333333</v>
@@ -2207,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="DY3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="DZ3" t="n">
         <v>0.3684210526315789</v>
@@ -2228,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="EF3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EG3" t="n">
         <v>0.2207792207792207</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="EM3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EN3" t="n">
         <v>0.4918032786885246</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="FN3" t="n">
-        <v>369</v>
+        <v>703</v>
       </c>
       <c r="FO3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="FP3" t="n">
         <v>0.6526835286859963</v>

--- a/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_fine_vit_b_16_lr0.0001/results.xlsx
@@ -1844,13 +1844,13 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="S3" t="n">
         <v>0.3071428571428571</v>
       </c>
       <c r="T3" t="n">
-        <v>0.455026455026455</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -1907,34 +1907,34 @@
         <v>0.7975460122699387</v>
       </c>
       <c r="AB3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="AG3" t="n">
         <v>0.4814814814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4333333333333332</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1949,13 +1949,13 @@
         <v>0.6277372262773723</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="n">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
@@ -1970,34 +1970,34 @@
         <v>0.6707317073170732</v>
       </c>
       <c r="AW3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="AZ3" t="n">
         <v>6</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="BB3" t="n">
         <v>0.875</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8682170542635659</v>
+        <v>0.8818897637795274</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE3" t="n">
         <v>1</v>
       </c>
       <c r="BF3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="BG3" t="n">
         <v>2</v>
@@ -2018,49 +2018,49 @@
         <v>2</v>
       </c>
       <c r="BM3" t="n">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="BN3" t="n">
         <v>8</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="BP3" t="n">
         <v>0.4358974358974359</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5074626865671643</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS3" t="n">
         <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.6197183098591549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BW3" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.5986394557823128</v>
+        <v>0.619718309859155</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BZ3" t="n">
         <v>1</v>
       </c>
       <c r="CA3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="CB3" t="n">
         <v>2</v>
@@ -2075,13 +2075,13 @@
         <v>0.6198830409356725</v>
       </c>
       <c r="CF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG3" t="n">
         <v>2</v>
       </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
       <c r="CH3" t="n">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="CI3" t="n">
         <v>4</v>
@@ -2096,13 +2096,13 @@
         <v>0.7333333333333334</v>
       </c>
       <c r="CM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN3" t="n">
         <v>1</v>
       </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
       <c r="CO3" t="n">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="CP3" t="n">
         <v>6</v>
@@ -2117,34 +2117,34 @@
         <v>0.8313253012048193</v>
       </c>
       <c r="CT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU3" t="n">
         <v>2</v>
       </c>
-      <c r="CU3" t="n">
-        <v>1</v>
-      </c>
       <c r="CV3" t="n">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="CW3" t="n">
         <v>5</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="CY3" t="n">
         <v>0.8409090909090909</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.7789473684210527</v>
       </c>
       <c r="DA3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DC3" t="n">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="DD3" t="n">
         <v>4</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="DJ3" t="n">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="DK3" t="n">
         <v>6</v>
@@ -2180,13 +2180,13 @@
         <v>0.6935483870967741</v>
       </c>
       <c r="DO3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DQ3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="DR3" t="n">
         <v>4</v>
@@ -2201,13 +2201,13 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="DV3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DW3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DX3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="DY3" t="n">
         <v>10</v>
@@ -2222,13 +2222,13 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="EC3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="ED3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EE3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="EF3" t="n">
         <v>6</v>
@@ -2243,76 +2243,76 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EL3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="EM3" t="n">
         <v>4</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="EO3" t="n">
         <v>0.5357142857142857</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.5128205128205129</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.64</v>
       </c>
       <c r="EV3" t="n">
         <v>0.5614035087719298</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EY3" t="n">
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="FC3" t="n">
         <v>0.7647058823529411</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.6419753086419752</v>
+        <v>0.7323943661971832</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FF3" t="n">
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0.3826086956521739</v>
       </c>
       <c r="FL3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="FM3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="FN3" t="n">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="FO3" t="n">
         <v>6</v>
